--- a/SP_Sklad/TempLate/WayBill_In.xlsx
+++ b/SP_Sklad/TempLate/WayBill_In.xlsx
@@ -79,7 +79,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -368,7 +368,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -396,6 +396,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -408,40 +441,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -816,9 +816,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A2:P96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -831,25 +829,25 @@
     <col min="7" max="7" width="3.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="0.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="21.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="13" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="28" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
@@ -857,20 +855,20 @@
       <c r="J2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="31" t="e">
+      <c r="K2" s="42" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
     </row>
     <row r="3" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -898,25 +896,25 @@
       <c r="P4"/>
     </row>
     <row r="5" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36" t="e">
-        <f>IF(WayBillList_WTYPE &gt; 0,WayBillList_NAME," ")</f>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46" t="e">
+        <f>IF(WayBillList_WType &gt; 0,WayBillList_Name," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
     </row>
     <row r="6" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
@@ -955,27 +953,27 @@
       <c r="O7" s="9"/>
     </row>
     <row r="8" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="34" t="e">
-        <f>CONCATENATE("Підстава: ",WayBillList_REASON)</f>
+      <c r="B8" s="45" t="e">
+        <f>"Підстава: "&amp;WayBillList_Reason</f>
         <v>#NAME?</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
     </row>
     <row r="9" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -987,13 +985,13 @@
       <c r="B10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
       <c r="H10" s="7" t="s">
         <v>8</v>
       </c>
@@ -1017,35 +1015,35 @@
     </row>
     <row r="11" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="e">
-        <f>WayBillItems_NUM</f>
+        <f>range1_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C11" s="39" t="e">
-        <f>WayBillItems_MATNAME</f>
+      <c r="C11" s="33" t="e">
+        <f>range1_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="8" t="e">
-        <f>WayBillItems_MSRNAME</f>
+        <f>range1_MSRNAME</f>
         <v>#NAME?</v>
       </c>
       <c r="I11" s="30" t="e">
-        <f>WayBillItems_AMOUNT</f>
+        <f>range1_AMOUNT</f>
         <v>#NAME?</v>
       </c>
       <c r="J11" s="30" t="e">
-        <f>WayBillItems_PRICE</f>
+        <f>range1_PRICE</f>
         <v>#NAME?</v>
       </c>
       <c r="K11" s="21" t="e">
-        <f>WayBillItems_DISCOUNTPRICE</f>
+        <f>range1_DISCOUNTPRICE</f>
         <v>#NAME?</v>
       </c>
       <c r="L11" s="21" t="e">
-        <f>WayBillItems_NDS</f>
+        <f>range1_NDS</f>
         <v>#NAME?</v>
       </c>
       <c r="M11" s="18" t="e">
@@ -1053,7 +1051,7 @@
         <v>#NAME?</v>
       </c>
       <c r="N11" s="18" t="e">
-        <f>WayBillItems_SVCTOPRICE</f>
+        <f>range1_SVCTOPRICE</f>
         <v>#NAME?</v>
       </c>
       <c r="O11" s="18" t="e">
@@ -1069,10 +1067,10 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
-      <c r="I12" s="35" t="s">
+      <c r="I12" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="35"/>
+      <c r="J12" s="41"/>
       <c r="K12" s="24" t="s">
         <v>0</v>
       </c>
@@ -1092,11 +1090,11 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="35" t="e">
-        <f>"Всього ПДВ "&amp;WayBillList_NDS&amp;"%"</f>
+      <c r="I13" s="41" t="e">
+        <f>"Всього ПДВ "&amp;WayBillList_Nds&amp;"%"</f>
         <v>#NAME?</v>
       </c>
-      <c r="J13" s="35"/>
+      <c r="J13" s="41"/>
       <c r="K13" s="25"/>
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
@@ -1108,10 +1106,10 @@
     </row>
     <row r="14" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H14" s="19"/>
-      <c r="I14" s="35" t="s">
+      <c r="I14" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="35"/>
+      <c r="J14" s="41"/>
       <c r="K14" s="25"/>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
@@ -1122,11 +1120,11 @@
       </c>
     </row>
     <row r="15" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
       <c r="G15" s="23"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1188,30 +1186,30 @@
     </row>
     <row r="19" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38" t="e">
-        <f>IF(WayBillList_WTYPE &lt; 0,WayBillList_PERSONNAME," ")</f>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32" t="e">
+        <f>IF(WayBillList_WType &lt; 0,WayBillList_PersonName," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="37" t="s">
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="37"/>
-      <c r="I19" s="38" t="e">
-        <f>IF(WayBillList_WTYPE &gt; 0,WayBillList_PERSONNAME," ")</f>
+      <c r="H19" s="31"/>
+      <c r="I19" s="32" t="e">
+        <f>IF(WayBillList_WType &gt; 0,WayBillList_PersonName," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
     </row>
     <row r="20" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
@@ -2447,6 +2445,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B8:O8"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:O5"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="I19:O19"/>
     <mergeCell ref="C11:G11"/>
@@ -2456,14 +2461,7 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B8:O8"/>
-    <mergeCell ref="I12:J12"/>
     <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:O5"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/SP_Sklad/TempLate/WayBill_In.xlsx
+++ b/SP_Sklad/TempLate/WayBill_In.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="165" yWindow="15" windowWidth="18585" windowHeight="11505"/>
@@ -10,15 +10,15 @@
     <sheet name="Накладна" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="range1">Накладна!$A$11:$O$12</definedName>
+    <definedName name="range1">Накладна!$A$11:$P$12</definedName>
     <definedName name="range2">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>sum</t>
   </si>
@@ -72,16 +72,19 @@
   </si>
   <si>
     <t>Сума без ПДВ</t>
+  </si>
+  <si>
+    <t>Склад</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -322,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -396,6 +399,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -408,40 +447,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -601,7 +610,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -636,7 +644,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -812,65 +819,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A2:P19"/>
+  <dimension ref="A2:Q19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="3.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="13" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="9.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+    <row r="2" spans="2:17" ht="16.5" customHeight="1">
+      <c r="B2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
       <c r="I2" s="28" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="31"/>
+      <c r="K2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="31" t="e">
+      <c r="L2" s="43" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-    </row>
-    <row r="3" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+    </row>
+    <row r="3" spans="2:17" ht="12.75" customHeight="1">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -879,8 +888,9 @@
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
-    </row>
-    <row r="4" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P3" s="11"/>
+    </row>
+    <row r="4" spans="2:17" ht="12.75" customHeight="1">
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
@@ -895,30 +905,32 @@
       <c r="M4" s="29"/>
       <c r="N4" s="29"/>
       <c r="O4" s="29"/>
-      <c r="P4"/>
-    </row>
-    <row r="5" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="36" t="s">
+      <c r="P4" s="29"/>
+      <c r="Q4"/>
+    </row>
+    <row r="5" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B5" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36" t="e">
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47" t="e">
         <f>IF(WayBillList_WType &gt; 0,WayBillList_Name," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-    </row>
-    <row r="6" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+    </row>
+    <row r="6" spans="2:17" ht="21" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>1</v>
       </c>
@@ -935,8 +947,9 @@
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
-    </row>
-    <row r="7" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P6" s="14"/>
+    </row>
+    <row r="7" spans="2:17" ht="16.5" customHeight="1">
       <c r="B7" s="10" t="s">
         <v>6</v>
       </c>
@@ -953,47 +966,50 @@
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
-    </row>
-    <row r="8" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="34" t="e">
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="2:17" ht="18.75" customHeight="1">
+      <c r="B8" s="46" t="e">
         <f>"Підстава: "&amp;WayBillList_Reason</f>
         <v>#NAME?</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-    </row>
-    <row r="9" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+    </row>
+    <row r="9" spans="2:17" ht="6" customHeight="1">
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="2:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="2:17" ht="31.5" customHeight="1">
       <c r="B10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
       <c r="H10" s="7" t="s">
         <v>8</v>
       </c>
@@ -1001,33 +1017,36 @@
         <v>5</v>
       </c>
       <c r="J10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="L10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="6"/>
+      <c r="N10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N10" s="6"/>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="6"/>
+      <c r="P10" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" ht="12.75" customHeight="1">
       <c r="B11" s="8" t="e">
         <f>range1_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C11" s="39" t="e">
+      <c r="C11" s="34" t="e">
         <f>range1_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="8" t="e">
         <f>range1_MSRNAME</f>
         <v>#NAME?</v>
@@ -1036,32 +1055,36 @@
         <f>range1_AMOUNT</f>
         <v>#NAME?</v>
       </c>
-      <c r="J11" s="30" t="e">
+      <c r="J11" s="48" t="e">
+        <f>range1_WhName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K11" s="30" t="e">
         <f>range1_PRICE</f>
         <v>#NAME?</v>
       </c>
-      <c r="K11" s="21" t="e">
+      <c r="L11" s="21" t="e">
         <f>range1_DISCOUNTPRICE</f>
         <v>#NAME?</v>
       </c>
-      <c r="L11" s="21" t="e">
+      <c r="M11" s="21" t="e">
         <f>range1_NDS</f>
         <v>#NAME?</v>
       </c>
-      <c r="M11" s="18" t="e">
-        <f>ROUND(O11*L11/100,2)</f>
-        <v>#NAME?</v>
-      </c>
       <c r="N11" s="18" t="e">
+        <f>ROUND(P11*M11/100,2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O11" s="18" t="e">
         <f>range1_SVCTOPRICE</f>
         <v>#NAME?</v>
       </c>
-      <c r="O11" s="18" t="e">
-        <f>IF(N11&lt;&gt;1,ROUND(I11*J11,2),0)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P11" s="18" t="e">
+        <f>IF(O11&lt;&gt;1,ROUND(I11*K11,2),0)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="12.75" customHeight="1">
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -1069,64 +1092,67 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
-      <c r="I12" s="35" t="s">
+      <c r="I12" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="24" t="s">
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24" t="s">
+      <c r="M12" s="24"/>
+      <c r="N12" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24" t="s">
+      <c r="O12" s="24"/>
+      <c r="P12" s="24" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" ht="12.75" customHeight="1">
       <c r="B13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="35" t="e">
+      <c r="I13" s="42" t="e">
         <f>"Всього ПДВ "&amp;WayBillList_Nds&amp;"%"</f>
         <v>#NAME?</v>
       </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="25"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
-      <c r="O13" s="26" t="str">
-        <f>M12</f>
+      <c r="O13" s="25"/>
+      <c r="P13" s="26" t="str">
+        <f>N12</f>
         <v>sum</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" ht="12.75" customHeight="1">
       <c r="H14" s="19"/>
-      <c r="I14" s="35" t="s">
+      <c r="I14" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="35"/>
-      <c r="K14" s="25"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
-      <c r="O14" s="27" t="e">
-        <f>O12+O13</f>
+      <c r="O14" s="25"/>
+      <c r="P14" s="27" t="e">
+        <f>P12+P13</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
+    <row r="15" spans="2:17" ht="12.75" customHeight="1">
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
       <c r="G15" s="23"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1136,8 +1162,9 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="2:17" ht="12.75" customHeight="1">
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -1152,8 +1179,9 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" ht="12.75" customHeight="1">
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -1168,8 +1196,9 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" ht="12.75" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1185,57 +1214,59 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="1:16" ht="12.75" customHeight="1">
       <c r="A19" s="4"/>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38" t="e">
+      <c r="C19" s="32"/>
+      <c r="D19" s="33" t="e">
         <f>IF(WayBillList_WType &lt; 0,WayBillList_PersonName," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="37" t="s">
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="37"/>
-      <c r="I19" s="38" t="e">
+      <c r="H19" s="32"/>
+      <c r="I19" s="33" t="e">
         <f>IF(WayBillList_WType &gt; 0,WayBillList_PersonName," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B8:P8"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:P5"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:O19"/>
+    <mergeCell ref="I19:P19"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:F19"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B8:O8"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:O5"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I13:K13"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/SP_Sklad/TempLate/WayBill_In.xlsx
+++ b/SP_Sklad/TempLate/WayBill_In.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Накладна" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="range1">Накладна!$A$11:$P$12</definedName>
+    <definedName name="range1">Накладна!$A$11:$Q$12</definedName>
     <definedName name="range2">#REF!</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>sum</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Разом, в т.ч ПДВ:</t>
   </si>
   <si>
-    <t>Ціна без ПДВ</t>
-  </si>
-  <si>
     <t xml:space="preserve">ПРИБУТКОВА НАКЛАДНА № </t>
   </si>
   <si>
@@ -71,10 +68,19 @@
     <t>Прийняв(ла)</t>
   </si>
   <si>
+    <t>Склад</t>
+  </si>
+  <si>
+    <t>Ціна з ПДВ</t>
+  </si>
+  <si>
+    <t>Сума з ПДВ</t>
+  </si>
+  <si>
     <t>Сума без ПДВ</t>
   </si>
   <si>
-    <t>Склад</t>
+    <t>Всього ПДВ</t>
   </si>
 </sst>
 </file>
@@ -402,6 +408,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -448,9 +457,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -821,10 +827,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A2:Q19"/>
+  <dimension ref="A2:R19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -839,25 +845,25 @@
     <col min="8" max="8" width="9.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="24.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="10.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="10.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B2" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
+    <row r="2" spans="2:18" ht="16.5" customHeight="1">
+      <c r="B2" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
       <c r="I2" s="28" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
@@ -866,20 +872,21 @@
       <c r="K2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="43" t="e">
+      <c r="L2" s="44" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-    </row>
-    <row r="3" spans="2:17" ht="12.75" customHeight="1">
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+    </row>
+    <row r="3" spans="2:18" ht="12.75" customHeight="1">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -889,8 +896,9 @@
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
-    </row>
-    <row r="4" spans="2:17" ht="12.75" customHeight="1">
+      <c r="Q3" s="11"/>
+    </row>
+    <row r="4" spans="2:18" ht="12.75" customHeight="1">
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
@@ -906,31 +914,33 @@
       <c r="N4" s="29"/>
       <c r="O4" s="29"/>
       <c r="P4" s="29"/>
-      <c r="Q4"/>
-    </row>
-    <row r="5" spans="2:17" ht="13.5" customHeight="1">
-      <c r="B5" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47" t="e">
+      <c r="Q4" s="29"/>
+      <c r="R4"/>
+    </row>
+    <row r="5" spans="2:18" ht="13.5" customHeight="1">
+      <c r="B5" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48" t="e">
         <f>IF(WayBillList_WType &gt; 0,WayBillList_Name," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-    </row>
-    <row r="6" spans="2:17" ht="21" customHeight="1">
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+    </row>
+    <row r="6" spans="2:18" ht="21" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>1</v>
       </c>
@@ -948,8 +958,9 @@
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
-    </row>
-    <row r="7" spans="2:17" ht="16.5" customHeight="1">
+      <c r="Q6" s="14"/>
+    </row>
+    <row r="7" spans="2:18" ht="16.5" customHeight="1">
       <c r="B7" s="10" t="s">
         <v>6</v>
       </c>
@@ -967,30 +978,32 @@
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
-    </row>
-    <row r="8" spans="2:17" ht="18.75" customHeight="1">
-      <c r="B8" s="46" t="e">
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="2:18" ht="18.75" customHeight="1">
+      <c r="B8" s="47" t="e">
         <f>"Підстава: "&amp;WayBillList_Reason</f>
         <v>#NAME?</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-    </row>
-    <row r="9" spans="2:17" ht="6" customHeight="1">
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+    </row>
+    <row r="9" spans="2:18" ht="6" customHeight="1">
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -998,18 +1011,19 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="2:17" ht="31.5" customHeight="1">
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="2:18" ht="31.5" customHeight="1">
       <c r="B10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
       <c r="H10" s="7" t="s">
         <v>8</v>
       </c>
@@ -1017,10 +1031,10 @@
         <v>5</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>7</v>
@@ -1029,24 +1043,27 @@
       <c r="N10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" ht="12.75" customHeight="1">
+      <c r="O10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="12.75" customHeight="1">
       <c r="B11" s="8" t="e">
         <f>range1_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C11" s="34" t="e">
+      <c r="C11" s="35" t="e">
         <f>range1_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
       <c r="H11" s="8" t="e">
         <f>range1_MSRNAME</f>
         <v>#NAME?</v>
@@ -1055,7 +1072,7 @@
         <f>range1_AMOUNT</f>
         <v>#NAME?</v>
       </c>
-      <c r="J11" s="48" t="e">
+      <c r="J11" s="32" t="e">
         <f>range1_WhName</f>
         <v>#NAME?</v>
       </c>
@@ -1072,19 +1089,23 @@
         <v>#NAME?</v>
       </c>
       <c r="N11" s="18" t="e">
-        <f>ROUND(P11*M11/100,2)</f>
+        <f>ROUND(Q11*M11/100,2)</f>
         <v>#NAME?</v>
       </c>
       <c r="O11" s="18" t="e">
+        <f>IF(P11&lt;&gt;1,Q11-N11,0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="P11" s="18" t="e">
         <f>range1_SVCTOPRICE</f>
         <v>#NAME?</v>
       </c>
-      <c r="P11" s="18" t="e">
-        <f>IF(O11&lt;&gt;1,ROUND(I11*K11,2),0)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" ht="12.75" customHeight="1">
+      <c r="Q11" s="18" t="e">
+        <f>IF(P11&lt;&gt;1,range1_Total,0)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="12.75" customHeight="1">
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -1092,11 +1113,11 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
-      <c r="I12" s="42" t="s">
+      <c r="I12" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
       <c r="L12" s="24" t="s">
         <v>0</v>
       </c>
@@ -1104,55 +1125,60 @@
       <c r="N12" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24" t="s">
+      <c r="O12" s="24" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:17" ht="12.75" customHeight="1">
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24" t="str">
+        <f>O12</f>
+        <v>sum</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" ht="12.75" customHeight="1">
       <c r="B13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="42" t="e">
-        <f>"Всього ПДВ "&amp;WayBillList_Nds&amp;"%"</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
+      <c r="I13" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
-      <c r="P13" s="26" t="str">
+      <c r="P13" s="25"/>
+      <c r="Q13" s="26" t="str">
         <f>N12</f>
         <v>sum</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="12.75" customHeight="1">
+    <row r="14" spans="2:18" ht="12.75" customHeight="1">
       <c r="H14" s="19"/>
-      <c r="I14" s="42" t="s">
+      <c r="I14" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
-      <c r="P14" s="27" t="e">
-        <f>P12+P13</f>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="27" t="e">
+        <f>Q12+Q13</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="12.75" customHeight="1">
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
+    <row r="15" spans="2:18" ht="12.75" customHeight="1">
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
       <c r="G15" s="23"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1163,8 +1189,9 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="2:17" ht="12.75" customHeight="1">
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="2:18" ht="12.75" customHeight="1">
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -1180,8 +1207,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="1:16" ht="12.75" customHeight="1">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="1:17" ht="12.75" customHeight="1">
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -1197,8 +1225,9 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="1:16" ht="12.75" customHeight="1">
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="1:17" ht="12.75" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1215,46 +1244,48 @@
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
-    </row>
-    <row r="19" spans="1:16" ht="12.75" customHeight="1">
+      <c r="Q18" s="5"/>
+    </row>
+    <row r="19" spans="1:17" ht="12.75" customHeight="1">
       <c r="A19" s="4"/>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34" t="e">
+        <f>IF(WayBillList_WType &lt; 0,WayBillList_PersonName," ")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33" t="e">
-        <f>IF(WayBillList_WType &lt; 0,WayBillList_PersonName," ")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="32"/>
-      <c r="I19" s="33" t="e">
+      <c r="H19" s="33"/>
+      <c r="I19" s="34" t="e">
         <f>IF(WayBillList_WType &gt; 0,WayBillList_PersonName," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="L2:Q2"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B8:P8"/>
+    <mergeCell ref="B8:Q8"/>
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:P5"/>
+    <mergeCell ref="E5:Q5"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:P19"/>
+    <mergeCell ref="I19:Q19"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C9:D9"/>

--- a/SP_Sklad/TempLate/WayBill_In.xlsx
+++ b/SP_Sklad/TempLate/WayBill_In.xlsx
@@ -411,6 +411,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -439,24 +457,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -830,7 +830,7 @@
   <dimension ref="A2:R19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -839,11 +839,11 @@
     <col min="2" max="2" width="3.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="3.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="3.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="24.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.85546875" style="1" hidden="1" customWidth="1"/>
@@ -855,15 +855,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
       <c r="I2" s="28" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
@@ -872,21 +872,21 @@
       <c r="K2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="44" t="e">
+      <c r="L2" s="33" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
     </row>
     <row r="3" spans="2:18" ht="12.75" customHeight="1">
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -918,27 +918,27 @@
       <c r="R4"/>
     </row>
     <row r="5" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48" t="e">
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38" t="e">
         <f>IF(WayBillList_WType &gt; 0,WayBillList_Name," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
     </row>
     <row r="6" spans="2:18" ht="21" customHeight="1">
       <c r="B6" s="12" t="s">
@@ -981,29 +981,29 @@
       <c r="Q7" s="9"/>
     </row>
     <row r="8" spans="2:18" ht="18.75" customHeight="1">
-      <c r="B8" s="47" t="e">
+      <c r="B8" s="36" t="e">
         <f>"Підстава: "&amp;WayBillList_Reason</f>
         <v>#NAME?</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
     </row>
     <row r="9" spans="2:18" ht="6" customHeight="1">
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1017,13 +1017,13 @@
       <c r="B10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="46"/>
       <c r="H10" s="7" t="s">
         <v>8</v>
       </c>
@@ -1056,14 +1056,14 @@
         <f>range1_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C11" s="35" t="e">
+      <c r="C11" s="41" t="e">
         <f>range1_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
       <c r="H11" s="8" t="e">
         <f>range1_MSRNAME</f>
         <v>#NAME?</v>
@@ -1113,11 +1113,11 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
-      <c r="I12" s="43" t="s">
+      <c r="I12" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
       <c r="L12" s="24" t="s">
         <v>0</v>
       </c>
@@ -1141,11 +1141,11 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
@@ -1158,11 +1158,11 @@
     </row>
     <row r="14" spans="2:18" ht="12.75" customHeight="1">
       <c r="H14" s="19"/>
-      <c r="I14" s="43" t="s">
+      <c r="I14" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
@@ -1174,11 +1174,11 @@
       </c>
     </row>
     <row r="15" spans="2:18" ht="12.75" customHeight="1">
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
       <c r="G15" s="23"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1248,42 +1248,35 @@
     </row>
     <row r="19" spans="1:17" ht="12.75" customHeight="1">
       <c r="A19" s="4"/>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="34" t="e">
+      <c r="C19" s="39"/>
+      <c r="D19" s="40" t="e">
         <f>IF(WayBillList_WType &lt; 0,WayBillList_PersonName," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="33" t="s">
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="33"/>
-      <c r="I19" s="34" t="e">
+      <c r="H19" s="39"/>
+      <c r="I19" s="40" t="e">
         <f>IF(WayBillList_WType &gt; 0,WayBillList_PersonName," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B8:Q8"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:Q5"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="I19:Q19"/>
     <mergeCell ref="C11:G11"/>
@@ -1294,6 +1287,13 @@
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B8:Q8"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/SP_Sklad/TempLate/WayBill_In.xlsx
+++ b/SP_Sklad/TempLate/WayBill_In.xlsx
@@ -1,24 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WinVSProjects\SP-Sklad\SP_Sklad\TempLate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDAB6FF-AEE1-4D66-8B2E-B2BC996758DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="15" windowWidth="18585" windowHeight="11505"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Накладна" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="range1">Накладна!$A$11:$Q$12</definedName>
+    <definedName name="range1">Накладна!$A$11:$P$12</definedName>
     <definedName name="range2">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>sum</t>
   </si>
@@ -41,9 +58,6 @@
     <t>За довіреністю серія _________№____________від "         "___________20__ р.</t>
   </si>
   <si>
-    <t>Знижка</t>
-  </si>
-  <si>
     <t>Од. виміру</t>
   </si>
   <si>
@@ -81,16 +95,19 @@
   </si>
   <si>
     <t>Всього ПДВ</t>
+  </si>
+  <si>
+    <t>Сума ПДВ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -331,16 +348,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -353,68 +369,71 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -423,41 +442,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,6 +541,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -584,7 +591,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -616,9 +623,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -650,6 +675,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -825,15 +868,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A2:R19"/>
+  <dimension ref="B2:Q19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.28515625" style="1" customWidth="1"/>
@@ -846,164 +889,157 @@
     <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="24.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="10.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="0.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B2" s="34" t="s">
+    <row r="2" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="37" t="e">
+        <f>WayBillList_NUM</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J2" s="39"/>
+      <c r="K2" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="36" t="e">
+        <f>WayBillList_ONDATE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+    </row>
+    <row r="3" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+    </row>
+    <row r="4" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+    </row>
+    <row r="5" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="28" t="e">
-        <f>WayBillList_NUM</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="33" t="e">
-        <f>WayBillList_ONDATE</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-    </row>
-    <row r="3" spans="2:18" ht="12.75" customHeight="1">
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-    </row>
-    <row r="4" spans="2:18" ht="12.75" customHeight="1">
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4"/>
-    </row>
-    <row r="5" spans="2:18" ht="13.5" customHeight="1">
-      <c r="B5" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38" t="e">
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35" t="e">
         <f>IF(WayBillList_WType &gt; 0,WayBillList_Name," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-    </row>
-    <row r="6" spans="2:18" ht="21" customHeight="1">
-      <c r="B6" s="12" t="s">
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+    </row>
+    <row r="6" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-    </row>
-    <row r="7" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B7" s="10" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+    </row>
+    <row r="7" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-    </row>
-    <row r="8" spans="2:18" ht="18.75" customHeight="1">
-      <c r="B8" s="36" t="e">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="34" t="e">
         <f>"Підстава: "&amp;WayBillList_Reason</f>
         <v>#NAME?</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-    </row>
-    <row r="9" spans="2:18" ht="6" customHeight="1">
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+    </row>
+    <row r="9" spans="2:17" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1011,175 +1047,159 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="2:18" ht="31.5" customHeight="1">
-      <c r="B10" s="6" t="s">
+    </row>
+    <row r="10" spans="2:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="7" t="s">
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="6" t="s">
+      <c r="M10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="5"/>
+      <c r="P10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6" t="s">
+    </row>
+    <row r="11" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="e">
+        <f>range1_NUM</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C11" s="24" t="e">
+        <f>range1_MATNAME</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="7" t="e">
+        <f>range1_MSRNAME</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I11" s="20" t="e">
+        <f>range1_AMOUNT</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J11" s="21" t="e">
+        <f>range1_WhName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K11" s="20" t="e">
+        <f>range1_PRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L11" s="16" t="e">
+        <f>range1_NDS</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M11" s="15" t="e">
+        <f>ROUND(P11 - (P11* 100 / (100 + L11)),2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N11" s="15" t="e">
+        <f>IF(O11&lt;&gt;1,P11-M11,0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O11" s="15" t="e">
+        <f>range1_SVCTOPRICE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="P11" s="15" t="e">
+        <f>IF(O11&lt;&gt;1,range1_Total,0)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" ht="12.75" customHeight="1">
-      <c r="B11" s="8" t="e">
-        <f>range1_NUM</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C11" s="41" t="e">
-        <f>range1_MATNAME</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="8" t="e">
-        <f>range1_MSRNAME</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I11" s="30" t="e">
-        <f>range1_AMOUNT</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J11" s="32" t="e">
-        <f>range1_WhName</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K11" s="30" t="e">
-        <f>range1_PRICE</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L11" s="21" t="e">
-        <f>range1_DISCOUNTPRICE</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M11" s="21" t="e">
-        <f>range1_NDS</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N11" s="18" t="e">
-        <f>ROUND(Q11*M11/100,2)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O11" s="18" t="e">
-        <f>IF(P11&lt;&gt;1,Q11-N11,0)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P11" s="18" t="e">
-        <f>range1_SVCTOPRICE</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q11" s="18" t="e">
-        <f>IF(P11&lt;&gt;1,range1_Total,0)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" ht="12.75" customHeight="1">
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="24" t="s">
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24" t="s">
+      <c r="N12" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="O12" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24" t="str">
-        <f>O12</f>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17" t="str">
+        <f>N12</f>
         <v>sum</v>
       </c>
     </row>
-    <row r="13" spans="2:18" ht="12.75" customHeight="1">
-      <c r="B13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
+    <row r="13" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="26" t="str">
-        <f>N12</f>
+      <c r="I13" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="15" t="str">
+        <f>M12</f>
         <v>sum</v>
       </c>
     </row>
-    <row r="14" spans="2:18" ht="12.75" customHeight="1">
-      <c r="H14" s="19"/>
-      <c r="I14" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="27" t="e">
-        <f>Q12+Q13</f>
+    <row r="14" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I14" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="19" t="e">
+        <f>P12+P13</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="2:18" ht="12.75" customHeight="1">
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="23"/>
+    <row r="15" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -1189,15 +1209,14 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-    </row>
-    <row r="16" spans="2:18" ht="12.75" customHeight="1">
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
+    </row>
+    <row r="16" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -1207,15 +1226,14 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="1:17" ht="12.75" customHeight="1">
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
+    </row>
+    <row r="17" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -1225,60 +1243,61 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-    </row>
-    <row r="18" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-    </row>
-    <row r="19" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="39" t="s">
+    </row>
+    <row r="18" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+    </row>
+    <row r="19" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23" t="e">
+        <f>IF(WayBillList_WType &lt; 0,WayBillList_PersonName," ")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="40" t="e">
-        <f>IF(WayBillList_WType &lt; 0,WayBillList_PersonName," ")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="40" t="e">
+      <c r="H19" s="22"/>
+      <c r="I19" s="23" t="e">
         <f>IF(WayBillList_WType &gt; 0,WayBillList_PersonName," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="16">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B8:P8"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:P5"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:Q19"/>
+    <mergeCell ref="I19:P19"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C9:D9"/>
@@ -1287,13 +1306,6 @@
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B8:Q8"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
